--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-4.357390330451593</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.689337925287001</v>
+        <v>-8.673954469447972</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.052001798485223</v>
+        <v>-3.06752926965551</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.432418116562173</v>
+        <v>-5.44460705050782</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.638548223712539</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.940003155494688</v>
+        <v>-8.922433285081091</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.141985195916406</v>
+        <v>-3.161217788790902</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.362518311690198</v>
+        <v>-5.375532060714873</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.052746445631196</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.758717221399186</v>
+        <v>-9.740649843477604</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.021509825166843</v>
+        <v>-3.041829079177202</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.234580328320851</v>
+        <v>-5.248562907755814</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.683697570328196</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.52677716760905</v>
+        <v>-10.50685068268394</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.930282658965695</v>
+        <v>-2.948860636698105</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.445327127164115</v>
+        <v>-5.456835261361992</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.505958979131412</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.30651544795372</v>
+        <v>-11.2873352242906</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.780022299251205</v>
+        <v>-2.798770476920557</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.998172615907802</v>
+        <v>-5.009994965373881</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.521512015076918</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.97043921736049</v>
+        <v>-11.94862744082618</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.75047297173743</v>
+        <v>-2.766746704169695</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.133481565777042</v>
+        <v>-5.148681729376285</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.703605482565697</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.47141618559914</v>
+        <v>-12.44748345600447</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.629329893542939</v>
+        <v>-2.646755748625276</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.69110574505796</v>
+        <v>-4.706410647079937</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.017760599445468</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.44612503986281</v>
+        <v>-13.42462747859669</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.372275619548489</v>
+        <v>-2.390316812864387</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.606725853243035</v>
+        <v>-4.621336863214402</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.417896979268775</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.19158767136785</v>
+        <v>-14.16922601811418</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.349167705032842</v>
+        <v>-2.367536205919784</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.233019160928806</v>
+        <v>-4.251191277273122</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.86117016320823</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.88575466033901</v>
+        <v>-14.86616857528778</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.176113646070907</v>
+        <v>-2.192544486137273</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.021028593315577</v>
+        <v>-4.038533002214965</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.295327530882442</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.54462480084887</v>
+        <v>-15.52701565352675</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.16498518865544</v>
+        <v>-2.179151060330188</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.50313636980542</v>
+        <v>-3.519514840660419</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.673013714552122</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.51554997959127</v>
+        <v>-16.49883110886239</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.997613189126814</v>
+        <v>-2.013625075502245</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.865135360025266</v>
+        <v>-2.881173431006381</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.962811844248836</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.15393066615384</v>
+        <v>-17.13787950286988</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.719755245916861</v>
+        <v>-1.732494056581861</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.500567095094563</v>
+        <v>-2.517796565634274</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.139581718994678</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.05701153157042</v>
+        <v>-18.04296349062125</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.556756075537372</v>
+        <v>-1.568002363678415</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.910143513841242</v>
+        <v>-1.924662877692716</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.189050899281217</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.97017347017513</v>
+        <v>-18.95815473616642</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.392342936450976</v>
+        <v>-1.402541840364681</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.546544079320826</v>
+        <v>-1.56630036430899</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.115363638980819</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.75963933153121</v>
+        <v>-19.74872035096121</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.150056780061993</v>
+        <v>-1.159705807256346</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.018610059531064</v>
+        <v>-1.036402499092969</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.930470995837711</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.74133947551236</v>
+        <v>-20.73247598648851</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.055255415185055</v>
+        <v>-1.06417127342027</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.659422731068309</v>
+        <v>-0.6789826315138477</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.651356444528604</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.58140708735171</v>
+        <v>-21.57394447473193</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.903790563609126</v>
+        <v>-0.9139109137057803</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2871300074609865</v>
+        <v>-0.3062054927013814</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.303415049258843</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.22874290905801</v>
+        <v>-22.22304775732186</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6484251966812591</v>
+        <v>-0.6580218546642442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08568640826000504</v>
+        <v>0.065327877341121</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.913842549603222</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.85826010659673</v>
+        <v>-22.8519758012327</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3475509850755523</v>
+        <v>-0.3566239509448684</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4049291207526535</v>
+        <v>0.3832613595495968</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.506046591281253</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.48856284230595</v>
+        <v>-23.48260584451296</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.08401602117444826</v>
+        <v>-0.08973735751628255</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3756809162042374</v>
+        <v>0.3505175101424399</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.101646288458094</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.99328420915733</v>
+        <v>-23.98925177988207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02690196850065499</v>
+        <v>0.0215341243355473</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6374484192217085</v>
+        <v>0.6115780288064577</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.721884269413759</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.37806698967566</v>
+        <v>-24.37699342084263</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007643191020475944</v>
+        <v>0.004409392218569606</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5689887676623229</v>
+        <v>0.5426077774362448</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.379211088704522</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65016431963525</v>
+        <v>-24.64708762846745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2974674990277659</v>
+        <v>0.2943122540429099</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5583054485434744</v>
+        <v>0.5327754580021086</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.078833078291125</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66254963812352</v>
+        <v>-24.66031085433759</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3092767561910028</v>
+        <v>0.3072081723420101</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4008574145688767</v>
+        <v>0.3740836552575469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.828539049062608</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63357637193478</v>
+        <v>-24.63527837130421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.127267562085327</v>
+        <v>0.1249633167851832</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3757463777184461</v>
+        <v>0.3489595261042746</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.626156643297064</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74683788381855</v>
+        <v>-24.7488279138505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2468526562416529</v>
+        <v>0.2425845655152502</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0844164548843576</v>
+        <v>0.06014332541579748</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.463334757850306</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.78941405265985</v>
+        <v>-24.79349885114647</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1989348278409355</v>
+        <v>0.1919697227291373</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01331758582912749</v>
+        <v>-0.03562686987142871</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.334379826014434</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.56549639715781</v>
+        <v>-24.56705438119597</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06971379879309923</v>
+        <v>0.06627052314572528</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2072538678236157</v>
+        <v>-0.2290263674494062</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.229166872023892</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.09613734028193</v>
+        <v>-24.09794407807409</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07023749090676827</v>
+        <v>0.06572064642637278</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6745967100618695</v>
+        <v>-0.6934627184567967</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.135306674499887</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.17306771177991</v>
+        <v>-24.17923418641836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1323211909822333</v>
+        <v>0.1293099613286363</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7396785474880898</v>
+        <v>-0.7526006503928734</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.043506876414096</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.75592075863683</v>
+        <v>-23.76031977239165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05254978976759636</v>
+        <v>0.04760089929342391</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.207466528022962</v>
+        <v>-1.217272662851415</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.9460651845417528</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18990122988049</v>
+        <v>-23.19462755120636</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1007610765090159</v>
+        <v>-0.106587151273584</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.281150008416196</v>
+        <v>-1.290105143559937</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.8355019137587077</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84611044955961</v>
+        <v>-22.85193652432417</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2938070819102668</v>
+        <v>-0.2993713106180004</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.306745460471771</v>
+        <v>-1.313291611892634</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.7070193998392775</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12138602575586</v>
+        <v>-22.12609925477888</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4207631425664844</v>
+        <v>-0.4286578011800453</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.513158707074424</v>
+        <v>-1.517570813132086</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.5594484142809115</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.31325054054748</v>
+        <v>-21.31679855461758</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3567679662761274</v>
+        <v>-0.3639687328390768</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.635336077193412</v>
+        <v>-1.641777490191541</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.3925633127023201</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.93695157227059</v>
+        <v>-20.93951766362757</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.415814252092312</v>
+        <v>-0.4206060349323837</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.886603553331819</v>
+        <v>-1.892285612765128</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.2082153907542335</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.28312196835478</v>
+        <v>-20.28568805971176</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2675177378040808</v>
+        <v>-0.2737758585624259</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.037125759103143</v>
+        <v>-2.042624526296668</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.01076592524058372</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97234997580074</v>
+        <v>-19.9771417586408</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5471955111090331</v>
+        <v>-0.5544486468833494</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.261396906781911</v>
+        <v>-2.267668119843097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1950376028188499</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.44057991127835</v>
+        <v>-19.44306744881828</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2703980444292606</v>
+        <v>-0.27797848777462</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.102927673185659</v>
+        <v>-2.110337916594075</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4032290236232944</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.88083159558319</v>
+        <v>-18.88719445476427</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01471846223319218</v>
+        <v>-0.02023032172955885</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.082752434506558</v>
+        <v>-2.08632663318235</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6085388117728405</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98030372922075</v>
+        <v>-17.98548828114607</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02360813586272418</v>
+        <v>-0.02982697971254406</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.975421735810088</v>
+        <v>-1.979689826536491</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8058980687805316</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.64566446858623</v>
+        <v>-17.65176548171047</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0226862469856192</v>
+        <v>0.01814321789954025</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.174477108215692</v>
+        <v>-2.18076141357972</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9897217127655704</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.13079656703251</v>
+        <v>-17.13952913302794</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.007124926584991061</v>
+        <v>-0.01215237087621387</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.215390554596085</v>
+        <v>-2.22096787560666</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.156382753546236</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75047826178321</v>
+        <v>-16.76109611938785</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01432026546975624</v>
+        <v>0.006949298969864463</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.153699623605872</v>
+        <v>-2.158556867960153</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.303120881754793</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08515361597237</v>
+        <v>-16.09035126020054</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02314447758507961</v>
+        <v>0.01519744976015189</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.449127437229421</v>
+        <v>-2.453199143413197</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.42773093051852</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4315203965992</v>
+        <v>-15.43762140972344</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.003904220085926448</v>
+        <v>-0.01367107800585409</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.383194600118488</v>
+        <v>-2.387410321633524</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.529686591424305</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.89477525699695</v>
+        <v>-14.90122976229793</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1441435404483119</v>
+        <v>0.1371391584279885</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.567809162489668</v>
+        <v>-2.569628992584668</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.609982647527132</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.19658893105339</v>
+        <v>-14.19987509906666</v>
       </c>
       <c r="F50" t="n">
-        <v>0.288381440855608</v>
+        <v>0.2799499978255364</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.487906838246613</v>
+        <v>-2.486191746574347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.669893854652066</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42416924799723</v>
+        <v>-13.42937998452824</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2856320572588456</v>
+        <v>0.2785491214214718</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.55516199794456</v>
+        <v>-2.553983690688805</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.710556127694399</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83333980535582</v>
+        <v>-12.84068458725003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3684146881270795</v>
+        <v>0.3610960908385546</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.565609655612258</v>
+        <v>-2.565832224760567</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.735225554208118</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18685498333423</v>
+        <v>-12.19099215103221</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4202994842888399</v>
+        <v>0.4129547023946316</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.585863448108408</v>
+        <v>-2.585405217508947</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.746095647929713</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80838269278561</v>
+        <v>-11.81325302944273</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3099313713330891</v>
+        <v>0.3016832205428017</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.69350836207308</v>
+        <v>-2.692657362388367</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.743351001942135</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35155296972926</v>
+        <v>-11.3577456289734</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06041826377547373</v>
+        <v>0.05309966648694885</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.164503956804175</v>
+        <v>-3.161859311630146</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.729311215241001</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.9105649331114</v>
+        <v>-10.91196580951547</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511348301657937</v>
+        <v>0.1441173558426285</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.235516607417697</v>
+        <v>-3.233277823631762</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.705543942369524</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15322758292892</v>
+        <v>-10.1552307052637</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08909040699885382</v>
+        <v>0.07989961040396211</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.599862303200092</v>
+        <v>-3.599482626417682</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.671930870213321</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.851502371638498</v>
+        <v>-9.854696893531878</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08816628117527542</v>
+        <v>-0.09699049329059879</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.632422860367464</v>
+        <v>-3.631336199231601</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.63030234679072</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.302555205787765</v>
+        <v>-9.307098234873845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0009006550569870192</v>
+        <v>-0.007674803304343556</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.915805755376625</v>
+        <v>-3.916172339856193</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.583413321726422</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.939217617324184</v>
+        <v>-8.940526847608357</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1349058023202375</v>
+        <v>-0.143101583899158</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.829540571952492</v>
+        <v>-3.827655280343284</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.532506942380914</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.407879598795573</v>
+        <v>-8.409228105988271</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1589825472461717</v>
+        <v>-0.1675841902131857</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.233320283894166</v>
+        <v>-4.23130406925654</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.479905531451022</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.901652617117393</v>
+        <v>-7.900631417495738</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1048589672984762</v>
+        <v>-0.1120597338614255</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.188400592844204</v>
+        <v>-4.185219163253664</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.431803455047261</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.421701887242557</v>
+        <v>-7.421662610334032</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1559058560783661</v>
+        <v>-0.166235683020488</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.192367560605247</v>
+        <v>-4.188819546535139</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.392917101432216</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.067463449253975</v>
+        <v>-7.063588127612824</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3152653662678558</v>
+        <v>-0.3250453164906252</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.43519050141074</v>
+        <v>-4.433658701978258</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.367192309428498</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.695615863943271</v>
+        <v>-6.693612741608487</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2604086173610236</v>
+        <v>-0.2693113832933973</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.717761673643714</v>
+        <v>-4.718010427397707</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.363000853282307</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.444453126227598</v>
+        <v>-6.442764219161015</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3760922052705151</v>
+        <v>-0.3859245247046514</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.71067873780634</v>
+        <v>-4.712406921781448</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.385621297608494</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.281755078813468</v>
+        <v>-6.278115418623468</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4343791375218796</v>
+        <v>-0.4436615802366634</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.823665311330436</v>
+        <v>-4.827606094485795</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.435143993071646</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.004970704436538</v>
+        <v>-6.001370321155063</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3992917659060537</v>
+        <v>-0.4087575008606217</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.821347973727451</v>
+        <v>-4.823115434611084</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.514703541502153</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.869203523967838</v>
+        <v>-5.86663743261086</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.65669953207723</v>
+        <v>-0.6679196356125892</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.919121291349461</v>
+        <v>-4.922957336082087</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.623703379749203</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.637469763669286</v>
+        <v>-5.631787704235977</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6023664752840667</v>
+        <v>-0.6123297177466203</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.78266021883015</v>
+        <v>-4.788682678137344</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.756210651390685</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.514546132288321</v>
+        <v>-5.509649611025515</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6975475169434153</v>
+        <v>-0.7094222356208608</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.758544196995691</v>
+        <v>-4.765090348416553</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.907448013456179</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.494855308814365</v>
+        <v>-5.487301050074689</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7936319274988429</v>
+        <v>-0.8041712312864324</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.656790819309796</v>
+        <v>-4.663153678490874</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.071891006015168</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.532325479547385</v>
+        <v>-5.524221344088356</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8478209689607471</v>
+        <v>-0.8603764873859624</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.466494197505307</v>
+        <v>-4.475475517254731</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.240297623616272</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.768851022686007</v>
+        <v>-5.76006608747921</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7403462549330178</v>
+        <v>-0.7529672348724418</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.352185301394197</v>
+        <v>-4.362109266948226</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.404504687967387</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.970053532757654</v>
+        <v>-5.959933182661</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.06985333285358</v>
+        <v>-1.082291020553219</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.1876150546737</v>
+        <v>-4.199070819660211</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.561109220043497</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.494976322893819</v>
+        <v>-6.486976925857524</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9853163334045543</v>
+        <v>-0.9960651140376113</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.019221855523419</v>
+        <v>-4.028792328900721</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.704556573054824</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.9610099348479</v>
+        <v>-6.953940091313368</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.044467357643473</v>
+        <v>-1.054941199916853</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.944255329451696</v>
+        <v>-3.954061464280149</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.828306558878722</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.538249567139602</v>
+        <v>-7.532331846255143</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.130274310468145</v>
+        <v>-1.144008136149116</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.54394507776308</v>
+        <v>-3.550897090572037</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.930519839867423</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.961707010252391</v>
+        <v>-7.956365350692966</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.096116492354082</v>
+        <v>-1.109811041126527</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.339600415009419</v>
+        <v>-3.345910904979131</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.007059091174944</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.434299865930177</v>
+        <v>-8.428539252679817</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.28565376059375</v>
+        <v>-1.297449925454145</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.973369427617816</v>
+        <v>-2.97909076395965</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.051608461669014</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.373868979366648</v>
+        <v>-9.368540412110065</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.206484605309833</v>
+        <v>-1.218542616227063</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.952722866036414</v>
+        <v>-2.957462279665119</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.060985424681872</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19647145921514</v>
+        <v>-10.19380062943543</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.29991127838839</v>
+        <v>-1.312191858453929</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.776997977294767</v>
+        <v>-2.782981159693435</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.030648319560253</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02966561206259</v>
+        <v>-11.02801598190453</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.410331760555508</v>
+        <v>-1.424013217025111</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.4040637308482</v>
+        <v>-2.407991421700717</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.955239011738819</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24294240870818</v>
+        <v>-12.24150225539559</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.485992178677843</v>
+        <v>-1.497971635778022</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.298369570006945</v>
+        <v>-2.304300383194247</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.830146211341862</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13043034144027</v>
+        <v>-13.13039106453174</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.582587189044097</v>
+        <v>-1.595600938068773</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.955770189244657</v>
+        <v>-1.961452248677966</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.651311738131252</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3197482238855</v>
+        <v>-14.31986605461108</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.79172363463783</v>
+        <v>-1.807303475019484</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.709412326671898</v>
+        <v>-1.715434785979092</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.414425569011369</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41903033968819</v>
+        <v>-15.42111201584003</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.834103418936497</v>
+        <v>-1.848072906068619</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.294137572835189</v>
+        <v>-1.299400678577563</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.115143442493641</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83159817019054</v>
+        <v>-16.83759444489205</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.852249350675129</v>
+        <v>-1.869989421025668</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9857745640040146</v>
+        <v>-0.9921374231850936</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.750652125448907</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52087182125277</v>
+        <v>-18.52730014194806</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.080081604726846</v>
+        <v>-2.09588401425681</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7810109475594189</v>
+        <v>-0.7879236834598503</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.318404854132248</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.1326128548863</v>
+        <v>-20.14055988271123</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.302336537767988</v>
+        <v>-2.319618377519066</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4918805316027405</v>
+        <v>-0.4999584824560854</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.8197037095087306</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.95693360976094</v>
+        <v>-21.96569236036205</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.510700537494059</v>
+        <v>-2.529278515226468</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6523790721394603</v>
+        <v>-0.6623161299963304</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2551868429394271</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67656831111313</v>
+        <v>-23.68672793811831</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.609049916441105</v>
+        <v>-2.629604831902614</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4723206311572017</v>
+        <v>-0.4827159196135322</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3726910501858893</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75617587909858</v>
+        <v>-25.76765782869078</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.783766697863939</v>
+        <v>-2.803575352063471</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.467240817654612</v>
+        <v>-0.4762221374040361</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.053581714583524</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.0209871630831</v>
+        <v>-28.03527086548342</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.656352406608261</v>
+        <v>-2.675637368694123</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6020653523187071</v>
+        <v>-0.6108764721311887</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.780762662774471</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.30129973363221</v>
+        <v>-30.31416946732562</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.142967118629536</v>
+        <v>-3.16226517301824</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9822134576310652</v>
+        <v>-0.9933811919550575</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.549456680479917</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48541006290031</v>
+        <v>-32.49922244239833</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.203846326843562</v>
+        <v>-3.221979166279352</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.211001449790228</v>
+        <v>-1.221841876543177</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.338019173984849</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.71048620776018</v>
+        <v>-34.72365706441897</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.574240666538834</v>
+        <v>-3.592438967488833</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.442316256397844</v>
+        <v>-1.454177882772448</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.149174857154074</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21688975608307</v>
+        <v>-37.22736359835645</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.823871604822025</v>
+        <v>-3.838652814730334</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.870513113139337</v>
+        <v>-1.884665892511243</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.951175112494239</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.74861381810184</v>
+        <v>-39.75902219886102</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.723388180511777</v>
+        <v>-3.734660653258504</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.346392136830396</v>
+        <v>-2.361985069514892</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.763182239130886</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.31580492851886</v>
+        <v>-42.32554560183311</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.905227174680511</v>
+        <v>-3.917717231591517</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.706522111097755</v>
+        <v>-2.723227889523798</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.519188177066765</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.567825032627</v>
+        <v>-44.57269536928413</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.144423547598846</v>
+        <v>-4.153732174919313</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.311884009893485</v>
+        <v>-3.330056126237801</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.300066028454768</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87622059277162</v>
+        <v>-46.87721560778759</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.289132770908444</v>
+        <v>-4.297014337219164</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.593276874870704</v>
+        <v>-3.607730777207969</v>
       </c>
     </row>
   </sheetData>
